--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.911257666666666</v>
+        <v>2.311181333333333</v>
       </c>
       <c r="H2">
-        <v>11.733773</v>
+        <v>6.933544</v>
       </c>
       <c r="I2">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="J2">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N2">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O2">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P2">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q2">
-        <v>637.4895117400033</v>
+        <v>402.4419317310364</v>
       </c>
       <c r="R2">
-        <v>5737.405605660029</v>
+        <v>3621.977385579328</v>
       </c>
       <c r="S2">
-        <v>0.407811594845995</v>
+        <v>0.3313406354036672</v>
       </c>
       <c r="T2">
-        <v>0.407811594845995</v>
+        <v>0.3313406354036673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.911257666666666</v>
+        <v>2.311181333333333</v>
       </c>
       <c r="H3">
-        <v>11.733773</v>
+        <v>6.933544</v>
       </c>
       <c r="I3">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="J3">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.954069</v>
       </c>
       <c r="O3">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P3">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q3">
-        <v>2.547622452481888</v>
+        <v>1.505402598948444</v>
       </c>
       <c r="R3">
-        <v>22.928602072337</v>
+        <v>13.548623390536</v>
       </c>
       <c r="S3">
-        <v>0.001629752264592291</v>
+        <v>0.001239436088402619</v>
       </c>
       <c r="T3">
-        <v>0.001629752264592291</v>
+        <v>0.001239436088402619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.911257666666666</v>
+        <v>2.311181333333333</v>
       </c>
       <c r="H4">
-        <v>11.733773</v>
+        <v>6.933544</v>
       </c>
       <c r="I4">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="J4">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N4">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O4">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P4">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q4">
-        <v>3.271765734414111</v>
+        <v>4.36372991956</v>
       </c>
       <c r="R4">
-        <v>29.445891609727</v>
+        <v>39.27356927604001</v>
       </c>
       <c r="S4">
-        <v>0.002092997574928055</v>
+        <v>0.003592769366894223</v>
       </c>
       <c r="T4">
-        <v>0.002092997574928055</v>
+        <v>0.003592769366894223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>12.300544</v>
       </c>
       <c r="I5">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J5">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N5">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O5">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P5">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q5">
-        <v>668.2818722244267</v>
+        <v>713.9573483203699</v>
       </c>
       <c r="R5">
-        <v>6014.53685001984</v>
+        <v>6425.616134883328</v>
       </c>
       <c r="S5">
-        <v>0.4275099293392957</v>
+        <v>0.587819167913374</v>
       </c>
       <c r="T5">
-        <v>0.4275099293392957</v>
+        <v>0.587819167913374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.300544</v>
       </c>
       <c r="I6">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J6">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.954069</v>
       </c>
       <c r="O6">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P6">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q6">
         <v>2.670679079281778</v>
@@ -818,10 +818,10 @@
         <v>24.036111713536</v>
       </c>
       <c r="S6">
-        <v>0.001708473433031057</v>
+        <v>0.002198837728668673</v>
       </c>
       <c r="T6">
-        <v>0.001708473433031057</v>
+        <v>0.002198837728668673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.300544</v>
       </c>
       <c r="I7">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J7">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N7">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O7">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P7">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q7">
-        <v>3.429800318606222</v>
+        <v>7.741531874560001</v>
       </c>
       <c r="R7">
-        <v>30.868202867456</v>
+        <v>69.67378687104001</v>
       </c>
       <c r="S7">
-        <v>0.002194094666932439</v>
+        <v>0.006373799269080074</v>
       </c>
       <c r="T7">
-        <v>0.002194094666932439</v>
+        <v>0.006373799269080074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H8">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I8">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J8">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N8">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O8">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P8">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q8">
-        <v>243.2840471859333</v>
+        <v>80.72875296502224</v>
       </c>
       <c r="R8">
-        <v>2189.5564246734</v>
+        <v>726.5587766852001</v>
       </c>
       <c r="S8">
-        <v>0.1556324511326984</v>
+        <v>0.06646602700598578</v>
       </c>
       <c r="T8">
-        <v>0.1556324511326984</v>
+        <v>0.06646602700598578</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H9">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I9">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J9">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.954069</v>
       </c>
       <c r="O9">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P9">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q9">
-        <v>0.9722448597622222</v>
+        <v>0.3019796520722223</v>
       </c>
       <c r="R9">
-        <v>8.750203737860001</v>
+        <v>2.71781686865</v>
       </c>
       <c r="S9">
-        <v>0.0006219596080227907</v>
+        <v>0.0002486274960618672</v>
       </c>
       <c r="T9">
-        <v>0.0006219596080227907</v>
+        <v>0.0002486274960618672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H10">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I10">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J10">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N10">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O10">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P10">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q10">
-        <v>1.248598439117778</v>
+        <v>0.8753523102500002</v>
       </c>
       <c r="R10">
-        <v>11.23738595206</v>
+        <v>7.878170792250001</v>
       </c>
       <c r="S10">
-        <v>0.00079874713450425</v>
+        <v>0.0007206997278656962</v>
       </c>
       <c r="T10">
-        <v>0.00079874713450425</v>
+        <v>0.0007206997278656962</v>
       </c>
     </row>
   </sheetData>
